--- a/biology/Zoologie/Ambulyx_pryeri/Ambulyx_pryeri.xlsx
+++ b/biology/Zoologie/Ambulyx_pryeri/Ambulyx_pryeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambulyx pryeri est une espèce de lépidoptères de la famille des Sphingidae, sous-famille des Smerinthinae, tribu des Ambulycini, et du genre Ambulyx.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure est de 100-110 mm.
 			Face dorsale du mâle (coll. MHNT)
@@ -544,7 +558,9 @@
           <t>Distribution  et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Distribution
 L'espèce se trouve au Sri Lanka, dans le sud et l'est de l'Inde, aux îles Nicobar et aux îles Andaman, en Thaïlande, au Vietnam, dans le sud de la Chine, aux Philippines (Palawan, Balabac), en Malaisie (péninsulaire, Sarawak) et en Indonésie (Sumatra, Java, Kalimantan).</t>
@@ -575,9 +591,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chenilles se nourrissent sur les espèces du genre Plumeria[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chenilles se nourrissent sur les espèces du genre Plumeria.
 </t>
         </is>
       </c>
@@ -606,16 +624,86 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Ambulyx pryeri a été décrite par l'entomologiste britannique William Lucas Distant en 1887[2].
-Synonymie
-Ambulyx eteocles Huwe, 1895[3]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Ambulyx pryeri a été décrite par l'entomologiste britannique William Lucas Distant en 1887.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ambulyx_pryeri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ambulyx_pryeri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ambulyx eteocles Huwe, 1895
 Oxyambulyx eteocles Rothschild &amp; Jordan, 1903
-Oxyambulyx sumatranus Rothschild, 1920[4]
-Oxyambulyx pryeri Distant; Diehl, 1980
-Liste des sous-espèces
-Ambulyx pryeri pryeri (Thaïlande, Malaisie, Bornéo, Sumatra, Java, Philippines)
+Oxyambulyx sumatranus Rothschild, 1920
+Oxyambulyx pryeri Distant; Diehl, 1980</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ambulyx_pryeri</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ambulyx_pryeri</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ambulyx pryeri pryeri (Thaïlande, Malaisie, Bornéo, Sumatra, Java, Philippines)
 Ambulyx pryeri tenggarensis Brechlin, 2009 (Flores)</t>
         </is>
       </c>
